--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Spon1-Lrp8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Spon1-Lrp8.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.465169666666667</v>
+        <v>0.8999933333333333</v>
       </c>
       <c r="H2">
-        <v>4.395509000000001</v>
+        <v>2.69998</v>
       </c>
       <c r="I2">
-        <v>0.03229814945245692</v>
+        <v>0.01781586806325543</v>
       </c>
       <c r="J2">
-        <v>0.03229814945245692</v>
+        <v>0.01781586806325543</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.359321</v>
+        <v>0.4394373333333333</v>
       </c>
       <c r="N2">
-        <v>4.077963</v>
+        <v>1.318312</v>
       </c>
       <c r="O2">
-        <v>0.5129683551755682</v>
+        <v>0.2944741752765458</v>
       </c>
       <c r="P2">
-        <v>0.5129683551755682</v>
+        <v>0.2944741752765458</v>
       </c>
       <c r="Q2">
-        <v>1.991635896463001</v>
+        <v>0.3954906704177777</v>
       </c>
       <c r="R2">
-        <v>17.924723068167</v>
+        <v>3.55941603376</v>
       </c>
       <c r="S2">
-        <v>0.01656792859984151</v>
+        <v>0.005246313054762894</v>
       </c>
       <c r="T2">
-        <v>0.01656792859984151</v>
+        <v>0.005246313054762895</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.465169666666667</v>
+        <v>0.8999933333333333</v>
       </c>
       <c r="H3">
-        <v>4.395509000000001</v>
+        <v>2.69998</v>
       </c>
       <c r="I3">
-        <v>0.03229814945245692</v>
+        <v>0.01781586806325543</v>
       </c>
       <c r="J3">
-        <v>0.03229814945245692</v>
+        <v>0.01781586806325543</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.951025</v>
       </c>
       <c r="O3">
-        <v>0.2454200994850647</v>
+        <v>0.4358046333636673</v>
       </c>
       <c r="P3">
-        <v>0.2454200994850647</v>
+        <v>0.4358046333636673</v>
       </c>
       <c r="Q3">
-        <v>0.9528608829694447</v>
+        <v>0.585303164388889</v>
       </c>
       <c r="R3">
-        <v>8.575747946725</v>
+        <v>5.267728479500001</v>
       </c>
       <c r="S3">
-        <v>0.007926615051805466</v>
+        <v>0.007764237849362502</v>
       </c>
       <c r="T3">
-        <v>0.007926615051805466</v>
+        <v>0.007764237849362502</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.465169666666667</v>
+        <v>0.8999933333333333</v>
       </c>
       <c r="H4">
-        <v>4.395509000000001</v>
+        <v>2.69998</v>
       </c>
       <c r="I4">
-        <v>0.03229814945245692</v>
+        <v>0.01781586806325543</v>
       </c>
       <c r="J4">
-        <v>0.03229814945245692</v>
+        <v>0.01781586806325543</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.197154</v>
+        <v>0.1607546666666667</v>
       </c>
       <c r="N4">
-        <v>0.591462</v>
+        <v>0.482264</v>
       </c>
       <c r="O4">
-        <v>0.07440020649742332</v>
+        <v>0.1077243426939663</v>
       </c>
       <c r="P4">
-        <v>0.07440020649742332</v>
+        <v>0.1077243426939663</v>
       </c>
       <c r="Q4">
-        <v>0.2888640604620001</v>
+        <v>0.1446781283022222</v>
       </c>
       <c r="R4">
-        <v>2.599776544158</v>
+        <v>1.30210315472</v>
       </c>
       <c r="S4">
-        <v>0.002402988988747435</v>
+        <v>0.001919202676636618</v>
       </c>
       <c r="T4">
-        <v>0.002402988988747435</v>
+        <v>0.001919202676636618</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.465169666666667</v>
+        <v>0.8999933333333333</v>
       </c>
       <c r="H5">
-        <v>4.395509000000001</v>
+        <v>2.69998</v>
       </c>
       <c r="I5">
-        <v>0.03229814945245692</v>
+        <v>0.01781586806325543</v>
       </c>
       <c r="J5">
-        <v>0.03229814945245692</v>
+        <v>0.01781586806325543</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4430953333333333</v>
+        <v>0.2417443333333333</v>
       </c>
       <c r="N5">
-        <v>1.329286</v>
+        <v>0.725233</v>
       </c>
       <c r="O5">
-        <v>0.1672113388419439</v>
+        <v>0.1619968486658205</v>
       </c>
       <c r="P5">
-        <v>0.1672113388419439</v>
+        <v>0.1619968486658205</v>
       </c>
       <c r="Q5">
-        <v>0.6492098418415557</v>
+        <v>0.2175682883711111</v>
       </c>
       <c r="R5">
-        <v>5.842888576574</v>
+        <v>1.95811459534</v>
       </c>
       <c r="S5">
-        <v>0.005400616812062521</v>
+        <v>0.002886114482493415</v>
       </c>
       <c r="T5">
-        <v>0.005400616812062521</v>
+        <v>0.002886114482493415</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>120.480656</v>
       </c>
       <c r="I6">
-        <v>0.8852904711645571</v>
+        <v>0.7949938412397365</v>
       </c>
       <c r="J6">
-        <v>0.8852904711645572</v>
+        <v>0.7949938412397366</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>1.359321</v>
+        <v>0.4394373333333333</v>
       </c>
       <c r="N6">
-        <v>4.077963</v>
+        <v>1.318312</v>
       </c>
       <c r="O6">
-        <v>0.5129683551755682</v>
+        <v>0.2944741752765458</v>
       </c>
       <c r="P6">
-        <v>0.5129683551755682</v>
+        <v>0.2944741752765458</v>
       </c>
       <c r="Q6">
-        <v>54.59062859819202</v>
+        <v>17.64789939696356</v>
       </c>
       <c r="R6">
-        <v>491.3156573837281</v>
+        <v>158.831094572672</v>
       </c>
       <c r="S6">
-        <v>0.4541259968458866</v>
+        <v>0.2341051557490046</v>
       </c>
       <c r="T6">
-        <v>0.4541259968458867</v>
+        <v>0.2341051557490046</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>120.480656</v>
       </c>
       <c r="I7">
-        <v>0.8852904711645571</v>
+        <v>0.7949938412397365</v>
       </c>
       <c r="J7">
-        <v>0.8852904711645572</v>
+        <v>0.7949938412397366</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>1.951025</v>
       </c>
       <c r="O7">
-        <v>0.2454200994850647</v>
+        <v>0.4358046333636673</v>
       </c>
       <c r="P7">
-        <v>0.2454200994850647</v>
+        <v>0.4358046333636673</v>
       </c>
       <c r="Q7">
         <v>26.11786354137778</v>
@@ -883,10 +883,10 @@
         <v>235.0607718724</v>
       </c>
       <c r="S7">
-        <v>0.2172680755063854</v>
+        <v>0.3464619995078569</v>
       </c>
       <c r="T7">
-        <v>0.2172680755063854</v>
+        <v>0.3464619995078569</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,40 +915,40 @@
         <v>120.480656</v>
       </c>
       <c r="I8">
-        <v>0.8852904711645571</v>
+        <v>0.7949938412397365</v>
       </c>
       <c r="J8">
-        <v>0.8852904711645572</v>
+        <v>0.7949938412397366</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.197154</v>
+        <v>0.1607546666666667</v>
       </c>
       <c r="N8">
-        <v>0.591462</v>
+        <v>0.482264</v>
       </c>
       <c r="O8">
-        <v>0.07440020649742332</v>
+        <v>0.1077243426939663</v>
       </c>
       <c r="P8">
-        <v>0.07440020649742332</v>
+        <v>0.1077243426939663</v>
       </c>
       <c r="Q8">
-        <v>7.917747751008002</v>
+        <v>6.455942565020446</v>
       </c>
       <c r="R8">
-        <v>71.25972975907202</v>
+        <v>58.10348308518401</v>
       </c>
       <c r="S8">
-        <v>0.06586579386484423</v>
+        <v>0.08564018899330203</v>
       </c>
       <c r="T8">
-        <v>0.06586579386484424</v>
+        <v>0.08564018899330203</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>120.480656</v>
       </c>
       <c r="I9">
-        <v>0.8852904711645571</v>
+        <v>0.7949938412397365</v>
       </c>
       <c r="J9">
-        <v>0.8852904711645572</v>
+        <v>0.7949938412397366</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.4430953333333333</v>
+        <v>0.2417443333333333</v>
       </c>
       <c r="N9">
-        <v>1.329286</v>
+        <v>0.725233</v>
       </c>
       <c r="O9">
-        <v>0.1672113388419439</v>
+        <v>0.1619968486658205</v>
       </c>
       <c r="P9">
-        <v>0.1672113388419439</v>
+        <v>0.1619968486658205</v>
       </c>
       <c r="Q9">
-        <v>17.79480547684622</v>
+        <v>9.708505288094225</v>
       </c>
       <c r="R9">
-        <v>160.153249291616</v>
+        <v>87.37654759284801</v>
       </c>
       <c r="S9">
-        <v>0.148030604947441</v>
+        <v>0.128786496989573</v>
       </c>
       <c r="T9">
-        <v>0.148030604947441</v>
+        <v>0.128786496989573</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.458552333333333</v>
+        <v>5.293300666666666</v>
       </c>
       <c r="H10">
-        <v>7.375657</v>
+        <v>15.879902</v>
       </c>
       <c r="I10">
-        <v>0.0541962425958086</v>
+        <v>0.104783827617029</v>
       </c>
       <c r="J10">
-        <v>0.0541962425958086</v>
+        <v>0.104783827617029</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,28 +1051,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.359321</v>
+        <v>0.4394373333333333</v>
       </c>
       <c r="N10">
-        <v>4.077963</v>
+        <v>1.318312</v>
       </c>
       <c r="O10">
-        <v>0.5129683551755682</v>
+        <v>0.2944741752765458</v>
       </c>
       <c r="P10">
-        <v>0.5129683551755682</v>
+        <v>0.2944741752765458</v>
       </c>
       <c r="Q10">
-        <v>3.341961816299001</v>
+        <v>2.326073929491555</v>
       </c>
       <c r="R10">
-        <v>30.077656346691</v>
+        <v>20.934665365424</v>
       </c>
       <c r="S10">
-        <v>0.027800957421068</v>
+        <v>0.03085613121984437</v>
       </c>
       <c r="T10">
-        <v>0.027800957421068</v>
+        <v>0.03085613121984437</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.458552333333333</v>
+        <v>5.293300666666666</v>
       </c>
       <c r="H11">
-        <v>7.375657</v>
+        <v>15.879902</v>
       </c>
       <c r="I11">
-        <v>0.0541962425958086</v>
+        <v>0.104783827617029</v>
       </c>
       <c r="J11">
-        <v>0.0541962425958086</v>
+        <v>0.104783827617029</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>1.951025</v>
       </c>
       <c r="O11">
-        <v>0.2454200994850647</v>
+        <v>0.4358046333636673</v>
       </c>
       <c r="P11">
-        <v>0.2454200994850647</v>
+        <v>0.4358046333636673</v>
       </c>
       <c r="Q11">
-        <v>1.598899022047222</v>
+        <v>3.442453977727778</v>
       </c>
       <c r="R11">
-        <v>14.390091198425</v>
+        <v>30.98208579955</v>
       </c>
       <c r="S11">
-        <v>0.01330084724958005</v>
+        <v>0.04566527757708105</v>
       </c>
       <c r="T11">
-        <v>0.01330084724958005</v>
+        <v>0.04566527757708105</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.458552333333333</v>
+        <v>5.293300666666666</v>
       </c>
       <c r="H12">
-        <v>7.375657</v>
+        <v>15.879902</v>
       </c>
       <c r="I12">
-        <v>0.0541962425958086</v>
+        <v>0.104783827617029</v>
       </c>
       <c r="J12">
-        <v>0.0541962425958086</v>
+        <v>0.104783827617029</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.197154</v>
+        <v>0.1607546666666667</v>
       </c>
       <c r="N12">
-        <v>0.591462</v>
+        <v>0.482264</v>
       </c>
       <c r="O12">
-        <v>0.07440020649742332</v>
+        <v>0.1077243426939663</v>
       </c>
       <c r="P12">
-        <v>0.07440020649742332</v>
+        <v>0.1077243426939663</v>
       </c>
       <c r="Q12">
-        <v>0.4847134267260001</v>
+        <v>0.8509227842364445</v>
       </c>
       <c r="R12">
-        <v>4.362420840534001</v>
+        <v>7.658305058128</v>
       </c>
       <c r="S12">
-        <v>0.004032211640512609</v>
+        <v>0.01128776895500233</v>
       </c>
       <c r="T12">
-        <v>0.00403221164051261</v>
+        <v>0.01128776895500232</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.458552333333333</v>
+        <v>5.293300666666666</v>
       </c>
       <c r="H13">
-        <v>7.375657</v>
+        <v>15.879902</v>
       </c>
       <c r="I13">
-        <v>0.0541962425958086</v>
+        <v>0.104783827617029</v>
       </c>
       <c r="J13">
-        <v>0.0541962425958086</v>
+        <v>0.104783827617029</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4430953333333333</v>
+        <v>0.2417443333333333</v>
       </c>
       <c r="N13">
-        <v>1.329286</v>
+        <v>0.725233</v>
       </c>
       <c r="O13">
-        <v>0.1672113388419439</v>
+        <v>0.1619968486658205</v>
       </c>
       <c r="P13">
-        <v>0.1672113388419439</v>
+        <v>0.1619968486658205</v>
       </c>
       <c r="Q13">
-        <v>1.089373065655778</v>
+        <v>1.279625440796222</v>
       </c>
       <c r="R13">
-        <v>9.804357590902001</v>
+        <v>11.516628967166</v>
       </c>
       <c r="S13">
-        <v>0.009062226284647947</v>
+        <v>0.01697464986510127</v>
       </c>
       <c r="T13">
-        <v>0.009062226284647947</v>
+        <v>0.01697464986510127</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.279948333333333</v>
+        <v>4.162877000000001</v>
       </c>
       <c r="H14">
-        <v>3.839845</v>
+        <v>12.488631</v>
       </c>
       <c r="I14">
-        <v>0.02821513678717742</v>
+        <v>0.08240646307997901</v>
       </c>
       <c r="J14">
-        <v>0.02821513678717743</v>
+        <v>0.08240646307997902</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1299,28 +1299,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>1.359321</v>
+        <v>0.4394373333333333</v>
       </c>
       <c r="N14">
-        <v>4.077963</v>
+        <v>1.318312</v>
       </c>
       <c r="O14">
-        <v>0.5129683551755682</v>
+        <v>0.2944741752765458</v>
       </c>
       <c r="P14">
-        <v>0.5129683551755682</v>
+        <v>0.2944741752765458</v>
       </c>
       <c r="Q14">
-        <v>1.739860648415</v>
+        <v>1.829323567874667</v>
       </c>
       <c r="R14">
-        <v>15.658745835735</v>
+        <v>16.463912110872</v>
       </c>
       <c r="S14">
-        <v>0.01447347230877206</v>
+        <v>0.02426657525293394</v>
       </c>
       <c r="T14">
-        <v>0.01447347230877207</v>
+        <v>0.02426657525293395</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.279948333333333</v>
+        <v>4.162877000000001</v>
       </c>
       <c r="H15">
-        <v>3.839845</v>
+        <v>12.488631</v>
       </c>
       <c r="I15">
-        <v>0.02821513678717742</v>
+        <v>0.08240646307997901</v>
       </c>
       <c r="J15">
-        <v>0.02821513678717743</v>
+        <v>0.08240646307997902</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>1.951025</v>
       </c>
       <c r="O15">
-        <v>0.2454200994850647</v>
+        <v>0.4358046333636673</v>
       </c>
       <c r="P15">
-        <v>0.2454200994850647</v>
+        <v>0.4358046333636673</v>
       </c>
       <c r="Q15">
-        <v>0.8324037323472222</v>
+        <v>2.707292366308334</v>
       </c>
       <c r="R15">
-        <v>7.491633591125</v>
+        <v>24.36563129677501</v>
       </c>
       <c r="S15">
-        <v>0.006924561677293791</v>
+        <v>0.03591311842936684</v>
       </c>
       <c r="T15">
-        <v>0.006924561677293792</v>
+        <v>0.03591311842936684</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,46 +1405,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.279948333333333</v>
+        <v>4.162877000000001</v>
       </c>
       <c r="H16">
-        <v>3.839845</v>
+        <v>12.488631</v>
       </c>
       <c r="I16">
-        <v>0.02821513678717742</v>
+        <v>0.08240646307997901</v>
       </c>
       <c r="J16">
-        <v>0.02821513678717743</v>
+        <v>0.08240646307997902</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.197154</v>
+        <v>0.1607546666666667</v>
       </c>
       <c r="N16">
-        <v>0.591462</v>
+        <v>0.482264</v>
       </c>
       <c r="O16">
-        <v>0.07440020649742332</v>
+        <v>0.1077243426939663</v>
       </c>
       <c r="P16">
-        <v>0.07440020649742332</v>
+        <v>0.1077243426939663</v>
       </c>
       <c r="Q16">
-        <v>0.25234693371</v>
+        <v>0.6692019045093336</v>
       </c>
       <c r="R16">
-        <v>2.27112240339</v>
+        <v>6.022817140584001</v>
       </c>
       <c r="S16">
-        <v>0.002099212003319045</v>
+        <v>0.008877182069025344</v>
       </c>
       <c r="T16">
-        <v>0.002099212003319046</v>
+        <v>0.008877182069025344</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.279948333333333</v>
+        <v>4.162877000000001</v>
       </c>
       <c r="H17">
-        <v>3.839845</v>
+        <v>12.488631</v>
       </c>
       <c r="I17">
-        <v>0.02821513678717742</v>
+        <v>0.08240646307997901</v>
       </c>
       <c r="J17">
-        <v>0.02821513678717743</v>
+        <v>0.08240646307997902</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.4430953333333333</v>
+        <v>0.2417443333333333</v>
       </c>
       <c r="N17">
-        <v>1.329286</v>
+        <v>0.725233</v>
       </c>
       <c r="O17">
-        <v>0.1672113388419439</v>
+        <v>0.1619968486658205</v>
       </c>
       <c r="P17">
-        <v>0.1672113388419439</v>
+        <v>0.1619968486658205</v>
       </c>
       <c r="Q17">
-        <v>0.5671391334077778</v>
+        <v>1.006351925113667</v>
       </c>
       <c r="R17">
-        <v>5.10425220067</v>
+        <v>9.057167326023002</v>
       </c>
       <c r="S17">
-        <v>0.004717890797792521</v>
+        <v>0.01334958732865289</v>
       </c>
       <c r="T17">
-        <v>0.004717890797792522</v>
+        <v>0.01334958732865289</v>
       </c>
     </row>
   </sheetData>
